--- a/Envio correos/Correos personalizados Smart Forests 2 prev.xlsx
+++ b/Envio correos/Correos personalizados Smart Forests 2 prev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa631587986ce8df/Documentos/VS Code/Python/Envio correos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{54882C88-67A1-4BE6-8DD2-903940EA4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE14BDC-EFE3-4653-9D97-71ED9856260E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{54882C88-67A1-4BE6-8DD2-903940EA4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42F0D82B-E2C4-4A63-B9AA-BD949A470183}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B85A8AB8-B8A4-42D2-BDDA-86BC9B8207E7}"/>
   </bookViews>
@@ -209,10 +209,10 @@
     <t>gestioncentro@bosquenativo.cl</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BFE218-09BD-418F-9B6F-33211C92CE81}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Envio correos/Correos personalizados Smart Forests 2 prev.xlsx
+++ b/Envio correos/Correos personalizados Smart Forests 2 prev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa631587986ce8df/Documentos/VS Code/Python/Envio correos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{54882C88-67A1-4BE6-8DD2-903940EA4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42F0D82B-E2C4-4A63-B9AA-BD949A470183}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{54882C88-67A1-4BE6-8DD2-903940EA4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E655C28-F9AB-4EF4-B830-ED29F756AAAF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B85A8AB8-B8A4-42D2-BDDA-86BC9B8207E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Nombre</t>
   </si>
@@ -93,10 +93,6 @@
     <t>diego.figueroa.saez@conaf.cl</t>
   </si>
   <si>
-    <t>Contactados a través del correo: 
-comunidad.preparada2@conaf.cl</t>
-  </si>
-  <si>
     <t>carellanoyev@gmail.com</t>
   </si>
   <si>
@@ -190,10 +186,6 @@
     <t>amaranta.palma@ufrontera.cl</t>
   </si>
   <si>
-    <t>rodrigo.garrido@ufrontera.cl 
-cc marta.rivas@ufrontera.cl</t>
-  </si>
-  <si>
     <t>hugo.sanhueza@ufrontera.cl</t>
   </si>
   <si>
@@ -213,13 +205,34 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>felipe.guarda@fundacionmaradentro.cl</t>
+  </si>
+  <si>
+    <t>Violeta</t>
+  </si>
+  <si>
+    <t>violeta.bustos@fundacionmaradentro.cl</t>
+  </si>
+  <si>
+    <t>comunidad.preparada2@conaf.cl</t>
+  </si>
+  <si>
+    <t>rodrigo.garrido@ufrontera.cl</t>
+  </si>
+  <si>
+    <t>marta.rivas@ufrontera.cl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,10 +262,30 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF9900FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -293,10 +326,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -306,11 +340,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -623,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BFE218-09BD-418F-9B6F-33211C92CE81}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -654,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -665,7 +711,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -676,18 +722,18 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
+      <c r="B5" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -695,10 +741,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -706,10 +752,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -717,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -728,10 +774,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -739,10 +785,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -750,10 +796,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -761,10 +807,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -772,10 +818,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -783,178 +829,218 @@
         <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B31" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>57</v>
+      <c r="C31" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{E5B62D8A-6160-466B-BE4E-B866EDCA4E52}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{76E03898-F6DE-46D6-BCF1-255D0AD7688C}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{825E8808-EC40-421F-BF93-D524C8A1D561}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{9587BF66-083B-41A2-9AE2-00EBE76EB90C}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{BC3C0E60-28F4-4F42-899C-2462AB886CED}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Envio correos/Correos personalizados Smart Forests 2 prev.xlsx
+++ b/Envio correos/Correos personalizados Smart Forests 2 prev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa631587986ce8df/Documentos/VS Code/Python/Envio correos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{54882C88-67A1-4BE6-8DD2-903940EA4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E655C28-F9AB-4EF4-B830-ED29F756AAAF}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{54882C88-67A1-4BE6-8DD2-903940EA4D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F3BB48-F0D2-4EB5-9879-E2F52A1E372D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B85A8AB8-B8A4-42D2-BDDA-86BC9B8207E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Nombre</t>
   </si>
@@ -45,162 +45,39 @@
     <t>Genero</t>
   </si>
   <si>
-    <t>Mario</t>
-  </si>
-  <si>
     <t>Paola</t>
   </si>
   <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Gladys</t>
-  </si>
-  <si>
     <t>Claudia</t>
   </si>
   <si>
-    <t>Cristian</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Katherine</t>
-  </si>
-  <si>
     <t>Andrés</t>
   </si>
   <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Tomás</t>
-  </si>
-  <si>
     <t>Gisela</t>
   </si>
   <si>
-    <t>mariorivasd@gmail.com</t>
-  </si>
-  <si>
-    <t>paola.mendez@reddeprevencion.cl</t>
-  </si>
-  <si>
-    <t>diego.figueroa.saez@conaf.cl</t>
-  </si>
-  <si>
     <t>carellanoyev@gmail.com</t>
   </si>
   <si>
-    <t>cristian.celis@reddeprevencion.cl</t>
-  </si>
-  <si>
-    <t>MHernandez.9@mma.gob.cl</t>
-  </si>
-  <si>
-    <t>khermosilla@uct.cl</t>
-  </si>
-  <si>
     <t>andres.fuentes@ufrontera.cl</t>
   </si>
   <si>
     <t>p.arroyovargas@gmail.com</t>
   </si>
   <si>
-    <t>lluna@uc.cl</t>
-  </si>
-  <si>
-    <t>metironi@uc.cl</t>
-  </si>
-  <si>
-    <t>jtibarra@uc.cl</t>
-  </si>
-  <si>
     <t>giselawiesner@sustentapucon.cl</t>
   </si>
   <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Gianna</t>
-  </si>
-  <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Pamela</t>
-  </si>
-  <si>
-    <t>Fernanda</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Alvaro</t>
-  </si>
-  <si>
-    <t>Amaranta</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Adison</t>
-  </si>
-  <si>
     <t>Pablo</t>
   </si>
   <si>
-    <t>Alexis</t>
-  </si>
-  <si>
-    <t>hi@barbaraacevedo.com</t>
-  </si>
-  <si>
-    <t>giannasalamanca@gmail.com</t>
-  </si>
-  <si>
     <t>v.palma04@ufromail.cl</t>
   </si>
   <si>
-    <t>pamelaiglesiascarranza@gmail.com</t>
-  </si>
-  <si>
-    <t>fernandalopezquilodran@gmail.com</t>
-  </si>
-  <si>
-    <t>carolina.navarrete@ufrontera.cl</t>
-  </si>
-  <si>
-    <t>Alvaro.sanhueza@ufrontera.cl</t>
-  </si>
-  <si>
-    <t>amaranta.palma@ufrontera.cl</t>
-  </si>
-  <si>
-    <t>hugo.sanhueza@ufrontera.cl</t>
-  </si>
-  <si>
-    <t>adison.altamirano@ufrontera.cl</t>
-  </si>
-  <si>
-    <t>pablo.martinez@ufrontera.cl</t>
-  </si>
-  <si>
-    <t>aacatala@uc.cl</t>
-  </si>
-  <si>
-    <t>gestioncentro@bosquenativo.cl</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
@@ -219,20 +96,131 @@
     <t>violeta.bustos@fundacionmaradentro.cl</t>
   </si>
   <si>
-    <t>comunidad.preparada2@conaf.cl</t>
-  </si>
-  <si>
-    <t>rodrigo.garrido@ufrontera.cl</t>
-  </si>
-  <si>
-    <t>marta.rivas@ufrontera.cl</t>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>jg899@cam.ac.uk</t>
+  </si>
+  <si>
+    <t>pagriv@gmail.com</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>petiara@uc.cl</t>
+  </si>
+  <si>
+    <t>solbirkner@gmail.com</t>
+  </si>
+  <si>
+    <t>pcontreras@caritaschile.org</t>
+  </si>
+  <si>
+    <t>diego.vergara@conaf.cl</t>
+  </si>
+  <si>
+    <t>clmarquezgodoy@gmail.com</t>
+  </si>
+  <si>
+    <t>nicolas.mendoza@ufrontera.cl</t>
+  </si>
+  <si>
+    <t>contacto@santuariocani.cl</t>
+  </si>
+  <si>
+    <t>granjaeducativaaltosdecaburgua@gmail.com</t>
+  </si>
+  <si>
+    <t>st.contrerasf@gmail.com</t>
+  </si>
+  <si>
+    <t>ramonfernandezh@gmail.com</t>
+  </si>
+  <si>
+    <t>mehar@tellee.net</t>
+  </si>
+  <si>
+    <t>bhavito@tellee.net</t>
+  </si>
+  <si>
+    <t>consultorbecerra@gmail.com</t>
+  </si>
+  <si>
+    <t>Limankian</t>
+  </si>
+  <si>
+    <t>limankian@gmail.com</t>
+  </si>
+  <si>
+    <t>loreto.c.lagos@gmail.com</t>
+  </si>
+  <si>
+    <t>valeriaconservacion@gmail.com</t>
+  </si>
+  <si>
+    <t>loncoestudio1@gmail.com</t>
+  </si>
+  <si>
+    <t>adrianfernandezosorio@gmail.com</t>
+  </si>
+  <si>
+    <t>Cynthia@glocalminds.com</t>
+  </si>
+  <si>
+    <t>hverschevre@gmail.com</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Loreto</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Ramón</t>
+  </si>
+  <si>
+    <t>Mehar</t>
+  </si>
+  <si>
+    <t>Bhavito</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Adrián</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Hernan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,14 +269,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -340,20 +340,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -669,16 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BFE218-09BD-418F-9B6F-33211C92CE81}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -693,354 +698,330 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="B27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>56</v>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{E5B62D8A-6160-466B-BE4E-B866EDCA4E52}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{76E03898-F6DE-46D6-BCF1-255D0AD7688C}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{825E8808-EC40-421F-BF93-D524C8A1D561}"/>
-    <hyperlink ref="B25" r:id="rId4" xr:uid="{9587BF66-083B-41A2-9AE2-00EBE76EB90C}"/>
-    <hyperlink ref="B24" r:id="rId5" xr:uid="{BC3C0E60-28F4-4F42-899C-2462AB886CED}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E5B62D8A-6160-466B-BE4E-B866EDCA4E52}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{76E03898-F6DE-46D6-BCF1-255D0AD7688C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>